--- a/xl/전체물품리스트_세트저장용.xlsx
+++ b/xl/전체물품리스트_세트저장용.xlsx
@@ -2107,7 +2107,7 @@
         <v>2000</v>
       </c>
       <c r="C11" s="7" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1" s="8">

--- a/xl/전체물품리스트_세트저장용.xlsx
+++ b/xl/전체물품리스트_세트저장용.xlsx
@@ -355,7 +355,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
         <v>780</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -652,7 +652,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -791,7 +791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -879,7 +879,7 @@
         <v>6000</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" ht="13.5" customHeight="1" s="8">
@@ -2068,7 +2068,7 @@
         <v>3000</v>
       </c>
       <c r="C8" s="7" t="n">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" ht="13.5" customHeight="1" s="8">
@@ -2081,7 +2081,7 @@
         <v>2000</v>
       </c>
       <c r="C9" s="7" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1" s="8">
@@ -2094,7 +2094,7 @@
         <v>2500</v>
       </c>
       <c r="C10" s="7" t="n">
-        <v>224</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1" s="8">
@@ -2107,7 +2107,7 @@
         <v>2000</v>
       </c>
       <c r="C11" s="7" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1" s="8">

--- a/xl/전체물품리스트_세트저장용.xlsx
+++ b/xl/전체물품리스트_세트저장용.xlsx
@@ -434,7 +434,7 @@
         <v>780</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1990,7 +1990,7 @@
         <v>8000</v>
       </c>
       <c r="C2" s="7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" ht="13.5" customHeight="1" s="8">
@@ -2016,7 +2016,7 @@
         <v>2400</v>
       </c>
       <c r="C4" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.5" customHeight="1" s="8">
@@ -2042,7 +2042,7 @@
         <v>2600</v>
       </c>
       <c r="C6" s="7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" ht="13.5" customHeight="1" s="8">
@@ -2055,7 +2055,7 @@
         <v>3000</v>
       </c>
       <c r="C7" s="7" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" ht="13.5" customHeight="1" s="8">
@@ -2068,7 +2068,7 @@
         <v>3000</v>
       </c>
       <c r="C8" s="7" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" ht="13.5" customHeight="1" s="8">
@@ -2081,7 +2081,7 @@
         <v>2000</v>
       </c>
       <c r="C9" s="7" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1" s="8">
@@ -2094,7 +2094,7 @@
         <v>2500</v>
       </c>
       <c r="C10" s="7" t="n">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1" s="8">
@@ -2107,7 +2107,7 @@
         <v>2000</v>
       </c>
       <c r="C11" s="7" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1" s="8">
@@ -2120,7 +2120,7 @@
         <v>9000</v>
       </c>
       <c r="C12" s="7" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1" s="8">
@@ -2133,7 +2133,7 @@
         <v>8000</v>
       </c>
       <c r="C13" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1" s="8">
@@ -2146,7 +2146,7 @@
         <v>9000</v>
       </c>
       <c r="C14" s="7" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1" s="8"/>

--- a/xl/전체물품리스트_세트저장용.xlsx
+++ b/xl/전체물품리스트_세트저장용.xlsx
@@ -2094,7 +2094,7 @@
         <v>2500</v>
       </c>
       <c r="C10" s="7" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1" s="8">
@@ -2120,7 +2120,7 @@
         <v>9000</v>
       </c>
       <c r="C12" s="7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1" s="8">
@@ -2146,7 +2146,7 @@
         <v>9000</v>
       </c>
       <c r="C14" s="7" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1" s="8"/>

--- a/xl/전체물품리스트_세트저장용.xlsx
+++ b/xl/전체물품리스트_세트저장용.xlsx
@@ -355,7 +355,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -922,7 +922,7 @@
         <v>4000</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1" s="8">
@@ -1990,7 +1990,7 @@
         <v>8000</v>
       </c>
       <c r="C2" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" ht="13.5" customHeight="1" s="8">
@@ -2029,7 +2029,7 @@
         <v>2600</v>
       </c>
       <c r="C5" s="7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.5" customHeight="1" s="8">
@@ -2042,7 +2042,7 @@
         <v>2600</v>
       </c>
       <c r="C6" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" ht="13.5" customHeight="1" s="8">
@@ -2055,7 +2055,7 @@
         <v>3000</v>
       </c>
       <c r="C7" s="7" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" ht="13.5" customHeight="1" s="8">
@@ -2068,7 +2068,7 @@
         <v>3000</v>
       </c>
       <c r="C8" s="7" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" ht="13.5" customHeight="1" s="8">
@@ -2094,7 +2094,7 @@
         <v>2500</v>
       </c>
       <c r="C10" s="7" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1" s="8">
@@ -2107,7 +2107,7 @@
         <v>2000</v>
       </c>
       <c r="C11" s="7" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1" s="8">
@@ -2120,7 +2120,7 @@
         <v>9000</v>
       </c>
       <c r="C12" s="7" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1" s="8">
@@ -2146,7 +2146,7 @@
         <v>9000</v>
       </c>
       <c r="C14" s="7" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1" s="8"/>

--- a/xl/전체물품리스트_세트저장용.xlsx
+++ b/xl/전체물품리스트_세트저장용.xlsx
@@ -355,7 +355,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2003,7 +2003,7 @@
         <v>8000</v>
       </c>
       <c r="C3" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="13.5" customHeight="1" s="8">
@@ -2107,7 +2107,7 @@
         <v>2000</v>
       </c>
       <c r="C11" s="7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1" s="8">
@@ -2120,7 +2120,7 @@
         <v>9000</v>
       </c>
       <c r="C12" s="7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1" s="8">
@@ -2146,7 +2146,7 @@
         <v>9000</v>
       </c>
       <c r="C14" s="7" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1" s="8"/>

--- a/xl/전체물품리스트_세트저장용.xlsx
+++ b/xl/전체물품리스트_세트저장용.xlsx
@@ -355,7 +355,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2003,7 +2003,7 @@
         <v>8000</v>
       </c>
       <c r="C3" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" ht="13.5" customHeight="1" s="8">
@@ -2029,7 +2029,7 @@
         <v>2600</v>
       </c>
       <c r="C5" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.5" customHeight="1" s="8">
@@ -2068,7 +2068,7 @@
         <v>3000</v>
       </c>
       <c r="C8" s="7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" ht="13.5" customHeight="1" s="8">
@@ -2094,7 +2094,7 @@
         <v>2500</v>
       </c>
       <c r="C10" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1" s="8">
@@ -2107,7 +2107,7 @@
         <v>2000</v>
       </c>
       <c r="C11" s="7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1" s="8">
@@ -2120,7 +2120,7 @@
         <v>9000</v>
       </c>
       <c r="C12" s="7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1" s="8">
@@ -2146,7 +2146,7 @@
         <v>9000</v>
       </c>
       <c r="C14" s="7" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1" s="8"/>

--- a/xl/전체물품리스트_세트저장용.xlsx
+++ b/xl/전체물품리스트_세트저장용.xlsx
@@ -355,7 +355,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
         <v>780</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -586,7 +586,7 @@
         <v>3000</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -612,7 +612,7 @@
         <v>2500</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -652,7 +652,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -716,6 +716,9 @@
       <c r="B5" s="4" t="n">
         <v>4000</v>
       </c>
+      <c r="C5" s="0" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
@@ -745,9 +748,6 @@
       </c>
       <c r="B8" s="4" t="n">
         <v>1050</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -797,7 +797,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="8.710000000000001" customWidth="1" style="8" min="1" max="22"/>
   </cols>
@@ -879,7 +879,7 @@
         <v>6000</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" ht="13.5" customHeight="1" s="8">
@@ -922,7 +922,7 @@
         <v>4000</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1" s="8">
@@ -1952,13 +1952,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="8.710000000000001" customWidth="1" style="8" min="1" max="22"/>
   </cols>
@@ -1990,7 +1990,7 @@
         <v>8000</v>
       </c>
       <c r="C2" s="7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" ht="13.5" customHeight="1" s="8">
@@ -2003,7 +2003,7 @@
         <v>8000</v>
       </c>
       <c r="C3" s="7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="13.5" customHeight="1" s="8">
@@ -2016,7 +2016,7 @@
         <v>2400</v>
       </c>
       <c r="C4" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.5" customHeight="1" s="8">
@@ -2029,7 +2029,7 @@
         <v>2600</v>
       </c>
       <c r="C5" s="7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" ht="13.5" customHeight="1" s="8">
@@ -2042,7 +2042,7 @@
         <v>2600</v>
       </c>
       <c r="C6" s="7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" ht="13.5" customHeight="1" s="8">
@@ -2055,7 +2055,7 @@
         <v>3000</v>
       </c>
       <c r="C7" s="7" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" ht="13.5" customHeight="1" s="8">
@@ -2068,7 +2068,7 @@
         <v>3000</v>
       </c>
       <c r="C8" s="7" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" ht="13.5" customHeight="1" s="8">
@@ -2081,7 +2081,7 @@
         <v>2000</v>
       </c>
       <c r="C9" s="7" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1" s="8">
@@ -2094,7 +2094,7 @@
         <v>2500</v>
       </c>
       <c r="C10" s="7" t="n">
-        <v>0</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1" s="8">
@@ -2107,7 +2107,7 @@
         <v>2000</v>
       </c>
       <c r="C11" s="7" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1" s="8">
@@ -2120,7 +2120,7 @@
         <v>9000</v>
       </c>
       <c r="C12" s="7" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1" s="8">
@@ -2133,7 +2133,7 @@
         <v>8000</v>
       </c>
       <c r="C13" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1" s="8">
@@ -2146,7 +2146,7 @@
         <v>9000</v>
       </c>
       <c r="C14" s="7" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1" s="8"/>

--- a/xl/전체물품리스트_세트저장용.xlsx
+++ b/xl/전체물품리스트_세트저장용.xlsx
@@ -389,7 +389,9 @@
       <c r="B2" s="4" t="n">
         <v>2300</v>
       </c>
-      <c r="C2" s="3" t="n"/>
+      <c r="C2" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
@@ -400,7 +402,9 @@
       <c r="B3" s="4" t="n">
         <v>1000</v>
       </c>
-      <c r="C3" s="3" t="n"/>
+      <c r="C3" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
@@ -411,7 +415,9 @@
       <c r="B4" s="4" t="n">
         <v>3300</v>
       </c>
-      <c r="C4" s="3" t="n"/>
+      <c r="C4" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
@@ -422,7 +428,9 @@
       <c r="B5" s="4" t="n">
         <v>800</v>
       </c>
-      <c r="C5" s="3" t="n"/>
+      <c r="C5" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
@@ -446,7 +454,9 @@
       <c r="B7" s="4" t="n">
         <v>1100</v>
       </c>
-      <c r="C7" s="3" t="n"/>
+      <c r="C7" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -457,7 +467,9 @@
       <c r="B8" s="4" t="n">
         <v>1000</v>
       </c>
-      <c r="C8" s="3" t="n"/>
+      <c r="C8" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -468,7 +480,9 @@
       <c r="B9" s="4" t="n">
         <v>1000</v>
       </c>
-      <c r="C9" s="3" t="n"/>
+      <c r="C9" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -479,7 +493,9 @@
       <c r="B10" s="4" t="n">
         <v>2600</v>
       </c>
-      <c r="C10" s="3" t="n"/>
+      <c r="C10" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -490,7 +506,9 @@
       <c r="B11" s="4" t="n">
         <v>1500</v>
       </c>
-      <c r="C11" s="3" t="n"/>
+      <c r="C11" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -501,7 +519,9 @@
       <c r="B12" s="4" t="n">
         <v>600</v>
       </c>
-      <c r="C12" s="3" t="n"/>
+      <c r="C12" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
@@ -512,7 +532,9 @@
       <c r="B13" s="4" t="n">
         <v>1600</v>
       </c>
-      <c r="C13" s="3" t="n"/>
+      <c r="C13" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -599,7 +621,7 @@
         <v>2000</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +634,7 @@
         <v>2500</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +647,7 @@
         <v>2000</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -652,7 +674,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,6 +708,9 @@
       <c r="B2" s="4" t="n">
         <v>1000</v>
       </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
@@ -696,6 +721,9 @@
       <c r="B3" s="4" t="n">
         <v>1000</v>
       </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
@@ -706,6 +734,9 @@
       <c r="B4" s="4" t="n">
         <v>1200</v>
       </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
@@ -729,6 +760,9 @@
       <c r="B6" s="4" t="n">
         <v>4000</v>
       </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
@@ -739,6 +773,9 @@
       <c r="B7" s="4" t="n">
         <v>930</v>
       </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -749,6 +786,9 @@
       <c r="B8" s="4" t="n">
         <v>1050</v>
       </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -759,6 +799,9 @@
       <c r="B9" s="4" t="n">
         <v>6000</v>
       </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -769,6 +812,9 @@
       <c r="B10" s="4" t="n">
         <v>1200</v>
       </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -778,6 +824,9 @@
       </c>
       <c r="B11" s="4" t="n">
         <v>6000</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -797,7 +846,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="8.710000000000001" customWidth="1" style="8" min="1" max="22"/>
   </cols>
@@ -828,6 +877,9 @@
       <c r="B2" s="4" t="n">
         <v>5000</v>
       </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" ht="13.5" customHeight="1" s="8">
       <c r="A3" s="4" t="inlineStr">
@@ -838,6 +890,9 @@
       <c r="B3" s="4" t="n">
         <v>930</v>
       </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" ht="13.5" customHeight="1" s="8">
       <c r="A4" s="4" t="inlineStr">
@@ -848,6 +903,9 @@
       <c r="B4" s="4" t="n">
         <v>1050</v>
       </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" ht="13.5" customHeight="1" s="8">
       <c r="A5" s="4" t="inlineStr">
@@ -858,6 +916,9 @@
       <c r="B5" s="4" t="n">
         <v>6000</v>
       </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" ht="13.5" customHeight="1" s="8">
       <c r="A6" s="4" t="inlineStr">
@@ -868,6 +929,9 @@
       <c r="B6" s="4" t="n">
         <v>1200</v>
       </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" ht="13.5" customHeight="1" s="8">
       <c r="A7" s="4" t="inlineStr">
@@ -891,6 +955,9 @@
       <c r="B8" s="4" t="n">
         <v>1000</v>
       </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" ht="13.5" customHeight="1" s="8">
       <c r="A9" s="4" t="inlineStr">
@@ -901,6 +968,9 @@
       <c r="B9" s="4" t="n">
         <v>1000</v>
       </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" ht="13.5" customHeight="1" s="8">
       <c r="A10" s="4" t="inlineStr">
@@ -911,6 +981,9 @@
       <c r="B10" s="4" t="n">
         <v>1200</v>
       </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" ht="13.5" customHeight="1" s="8">
       <c r="A11" s="4" t="inlineStr">
@@ -922,7 +995,7 @@
         <v>4000</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1" s="8">
@@ -934,6 +1007,9 @@
       <c r="B12" s="4" t="n">
         <v>4000</v>
       </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" ht="13.5" customHeight="1" s="8">
       <c r="A13" s="4" t="inlineStr">
@@ -944,6 +1020,9 @@
       <c r="B13" s="4" t="n">
         <v>12000</v>
       </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" ht="13.5" customHeight="1" s="8">
       <c r="A14" s="4" t="inlineStr">
@@ -954,6 +1033,9 @@
       <c r="B14" s="4" t="n">
         <v>12000</v>
       </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" ht="13.5" customHeight="1" s="8">
       <c r="A15" s="4" t="inlineStr">
@@ -963,6 +1045,9 @@
       </c>
       <c r="B15" s="4" t="n">
         <v>8000</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1" s="8"/>
@@ -1952,13 +2037,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="8.710000000000001" customWidth="1" style="8" min="1" max="22"/>
   </cols>

--- a/xl/전체물품리스트_세트저장용.xlsx
+++ b/xl/전체물품리스트_세트저장용.xlsx
@@ -608,7 +608,7 @@
         <v>3000</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -647,7 +647,7 @@
         <v>2000</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -674,7 +674,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -748,7 +748,7 @@
         <v>4000</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2037,7 +2037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2166,7 +2166,7 @@
         <v>2000</v>
       </c>
       <c r="C9" s="7" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1" s="8">
@@ -2218,7 +2218,7 @@
         <v>8000</v>
       </c>
       <c r="C13" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1" s="8">

--- a/xl/전체물품리스트_세트저장용.xlsx
+++ b/xl/전체물품리스트_세트저장용.xlsx
@@ -621,7 +621,7 @@
         <v>2000</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
@@ -674,7 +674,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -748,7 +748,7 @@
         <v>4000</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>4000</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1" s="8">
@@ -2037,7 +2037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2179,7 +2179,7 @@
         <v>2500</v>
       </c>
       <c r="C10" s="7" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1" s="8">
@@ -2218,7 +2218,7 @@
         <v>8000</v>
       </c>
       <c r="C13" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1" s="8">

--- a/xl/전체물품리스트_세트저장용.xlsx
+++ b/xl/전체물품리스트_세트저장용.xlsx
@@ -355,7 +355,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,7 +547,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -674,7 +674,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -840,7 +840,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>

--- a/xl/전체물품리스트_세트저장용.xlsx
+++ b/xl/전체물품리스트_세트저장용.xlsx
@@ -442,7 +442,7 @@
         <v>780</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -621,7 +621,7 @@
         <v>2000</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -674,7 +674,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -748,7 +748,7 @@
         <v>4000</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">

--- a/xl/전체물품리스트_세트저장용.xlsx
+++ b/xl/전체물품리스트_세트저장용.xlsx
@@ -401,7 +401,9 @@
       <c r="B2" s="5" t="n">
         <v>2300</v>
       </c>
-      <c r="C2" s="4" t="n"/>
+      <c r="C2" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="inlineStr">
@@ -412,7 +414,9 @@
       <c r="B3" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="C3" s="4" t="n"/>
+      <c r="C3" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="inlineStr">
@@ -423,7 +427,9 @@
       <c r="B4" s="5" t="n">
         <v>3300</v>
       </c>
-      <c r="C4" s="4" t="n"/>
+      <c r="C4" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="inlineStr">
@@ -434,7 +440,9 @@
       <c r="B5" s="5" t="n">
         <v>800</v>
       </c>
-      <c r="C5" s="4" t="n"/>
+      <c r="C5" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="inlineStr">
@@ -446,7 +454,7 @@
         <v>780</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -458,7 +466,9 @@
       <c r="B7" s="5" t="n">
         <v>1100</v>
       </c>
-      <c r="C7" s="4" t="n"/>
+      <c r="C7" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
@@ -469,7 +479,9 @@
       <c r="B8" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="C8" s="4" t="n"/>
+      <c r="C8" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="inlineStr">
@@ -480,7 +492,9 @@
       <c r="B9" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="C9" s="4" t="n"/>
+      <c r="C9" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="inlineStr">
@@ -491,7 +505,9 @@
       <c r="B10" s="5" t="n">
         <v>2600</v>
       </c>
-      <c r="C10" s="4" t="n"/>
+      <c r="C10" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="inlineStr">
@@ -502,7 +518,9 @@
       <c r="B11" s="5" t="n">
         <v>1500</v>
       </c>
-      <c r="C11" s="4" t="n"/>
+      <c r="C11" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="inlineStr">
@@ -513,7 +531,9 @@
       <c r="B12" s="5" t="n">
         <v>600</v>
       </c>
-      <c r="C12" s="4" t="n"/>
+      <c r="C12" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="inlineStr">
@@ -524,7 +544,9 @@
       <c r="B13" s="5" t="n">
         <v>1600</v>
       </c>
-      <c r="C13" s="4" t="n"/>
+      <c r="C13" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -603,7 +625,7 @@
         <v>3000</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -616,7 +638,7 @@
         <v>2000</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -629,7 +651,7 @@
         <v>2500</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -918,7 +940,7 @@
         <v>6000</v>
       </c>
       <c r="C7" s="9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" ht="13.5" customHeight="1" s="10">
@@ -2133,7 +2155,7 @@
         <v>3000</v>
       </c>
       <c r="C8" s="7" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" ht="13.5" customHeight="1" s="10">
@@ -2146,7 +2168,7 @@
         <v>2000</v>
       </c>
       <c r="C9" s="7" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1" s="10">
@@ -2159,7 +2181,7 @@
         <v>2500</v>
       </c>
       <c r="C10" s="7" t="n">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1" s="10">
@@ -2172,7 +2194,7 @@
         <v>2000</v>
       </c>
       <c r="C11" s="7" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1" s="10">
@@ -3203,7 +3225,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3224,7 +3246,7 @@
       </c>
       <c r="C1" s="9" t="inlineStr">
         <is>
-          <t>수량</t>
+          <t>사용 수량</t>
         </is>
       </c>
       <c r="D1" s="9" t="inlineStr">
@@ -3232,10 +3254,45 @@
           <t>단위</t>
         </is>
       </c>
-      <c r="E1" s="9" t="inlineStr">
-        <is>
-          <t>사용 수량</t>
-        </is>
+      <c r="E1" s="9" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="inlineStr">
+        <is>
+          <t>수저</t>
+        </is>
+      </c>
+      <c r="B2" s="9" t="n">
+        <v>780</v>
+      </c>
+      <c r="C2" s="9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="inlineStr">
+        <is>
+          <t>대패삼겹살</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C3" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="inlineStr">
+        <is>
+          <t>치즈김밥</t>
+        </is>
+      </c>
+      <c r="B4" s="9" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C4" s="9" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/xl/전체물품리스트_세트저장용.xlsx
+++ b/xl/전체물품리스트_세트저장용.xlsx
@@ -401,9 +401,7 @@
       <c r="B2" s="5" t="n">
         <v>2300</v>
       </c>
-      <c r="C2" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="C2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="5" t="inlineStr">
@@ -414,9 +412,7 @@
       <c r="B3" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="C3" s="4" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="inlineStr">
@@ -427,9 +423,7 @@
       <c r="B4" s="5" t="n">
         <v>3300</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="C4" s="4" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="5" t="inlineStr">
@@ -440,9 +434,7 @@
       <c r="B5" s="5" t="n">
         <v>800</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="C5" s="4" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="inlineStr">
@@ -454,7 +446,7 @@
         <v>780</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -466,9 +458,7 @@
       <c r="B7" s="5" t="n">
         <v>1100</v>
       </c>
-      <c r="C7" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="C7" s="4" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
@@ -479,9 +469,7 @@
       <c r="B8" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="C8" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="C8" s="4" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="5" t="inlineStr">
@@ -492,9 +480,7 @@
       <c r="B9" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="C9" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="C9" s="4" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="inlineStr">
@@ -505,9 +491,7 @@
       <c r="B10" s="5" t="n">
         <v>2600</v>
       </c>
-      <c r="C10" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="C10" s="4" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="inlineStr">
@@ -518,9 +502,7 @@
       <c r="B11" s="5" t="n">
         <v>1500</v>
       </c>
-      <c r="C11" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="C11" s="4" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="inlineStr">
@@ -531,9 +513,7 @@
       <c r="B12" s="5" t="n">
         <v>600</v>
       </c>
-      <c r="C12" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="C12" s="4" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="inlineStr">
@@ -544,9 +524,7 @@
       <c r="B13" s="5" t="n">
         <v>1600</v>
       </c>
-      <c r="C13" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="C13" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -625,7 +603,7 @@
         <v>3000</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -638,7 +616,7 @@
         <v>2000</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -651,7 +629,7 @@
         <v>2500</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -874,9 +852,6 @@
       <c r="B2" s="5" t="n">
         <v>5000</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" ht="13.5" customHeight="1" s="10">
       <c r="A3" s="5" t="inlineStr">
@@ -887,9 +862,6 @@
       <c r="B3" s="5" t="n">
         <v>930</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" ht="13.5" customHeight="1" s="10">
       <c r="A4" s="5" t="inlineStr">
@@ -900,9 +872,6 @@
       <c r="B4" s="5" t="n">
         <v>1050</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" ht="13.5" customHeight="1" s="10">
       <c r="A5" s="5" t="inlineStr">
@@ -913,9 +882,6 @@
       <c r="B5" s="5" t="n">
         <v>6000</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" ht="13.5" customHeight="1" s="10">
       <c r="A6" s="5" t="inlineStr">
@@ -926,9 +892,6 @@
       <c r="B6" s="5" t="n">
         <v>1200</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" ht="13.5" customHeight="1" s="10">
       <c r="A7" s="5" t="inlineStr">
@@ -940,7 +903,7 @@
         <v>6000</v>
       </c>
       <c r="C7" s="9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" ht="13.5" customHeight="1" s="10">
@@ -952,9 +915,6 @@
       <c r="B8" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" ht="13.5" customHeight="1" s="10">
       <c r="A9" s="5" t="inlineStr">
@@ -965,9 +925,6 @@
       <c r="B9" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" ht="13.5" customHeight="1" s="10">
       <c r="A10" s="5" t="inlineStr">
@@ -978,9 +935,6 @@
       <c r="B10" s="5" t="n">
         <v>1200</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" ht="13.5" customHeight="1" s="10">
       <c r="A11" s="5" t="inlineStr">
@@ -1004,9 +958,6 @@
       <c r="B12" s="5" t="n">
         <v>4000</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" ht="13.5" customHeight="1" s="10">
       <c r="A13" s="5" t="inlineStr">
@@ -1017,9 +968,6 @@
       <c r="B13" s="5" t="n">
         <v>12000</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14" ht="13.5" customHeight="1" s="10">
       <c r="A14" s="5" t="inlineStr">
@@ -1030,9 +978,6 @@
       <c r="B14" s="5" t="n">
         <v>12000</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" ht="13.5" customHeight="1" s="10">
       <c r="A15" s="5" t="inlineStr">
@@ -1042,9 +987,6 @@
       </c>
       <c r="B15" s="5" t="n">
         <v>8000</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1" s="10"/>
@@ -2155,7 +2097,7 @@
         <v>3000</v>
       </c>
       <c r="C8" s="7" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" ht="13.5" customHeight="1" s="10">
@@ -2168,7 +2110,7 @@
         <v>2000</v>
       </c>
       <c r="C9" s="7" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1" s="10">
@@ -2181,7 +2123,7 @@
         <v>2500</v>
       </c>
       <c r="C10" s="7" t="n">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1" s="10">
@@ -3259,14 +3201,14 @@
     <row r="2">
       <c r="A2" s="9" t="inlineStr">
         <is>
-          <t>수저</t>
+          <t>삼겹살</t>
         </is>
       </c>
       <c r="B2" s="9" t="n">
-        <v>780</v>
+        <v>3000</v>
       </c>
       <c r="C2" s="9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">

--- a/xl/전체물품리스트_세트저장용.xlsx
+++ b/xl/전체물품리스트_세트저장용.xlsx
@@ -401,7 +401,9 @@
       <c r="B2" s="5" t="n">
         <v>2300</v>
       </c>
-      <c r="C2" s="4" t="n"/>
+      <c r="C2" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="inlineStr">
@@ -412,7 +414,9 @@
       <c r="B3" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="C3" s="4" t="n"/>
+      <c r="C3" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="inlineStr">
@@ -423,7 +427,9 @@
       <c r="B4" s="5" t="n">
         <v>3300</v>
       </c>
-      <c r="C4" s="4" t="n"/>
+      <c r="C4" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="inlineStr">
@@ -434,7 +440,9 @@
       <c r="B5" s="5" t="n">
         <v>800</v>
       </c>
-      <c r="C5" s="4" t="n"/>
+      <c r="C5" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="inlineStr">
@@ -446,7 +454,7 @@
         <v>780</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -458,7 +466,9 @@
       <c r="B7" s="5" t="n">
         <v>1100</v>
       </c>
-      <c r="C7" s="4" t="n"/>
+      <c r="C7" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
@@ -469,7 +479,9 @@
       <c r="B8" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="C8" s="4" t="n"/>
+      <c r="C8" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="inlineStr">
@@ -480,7 +492,9 @@
       <c r="B9" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="C9" s="4" t="n"/>
+      <c r="C9" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="inlineStr">
@@ -491,7 +505,9 @@
       <c r="B10" s="5" t="n">
         <v>2600</v>
       </c>
-      <c r="C10" s="4" t="n"/>
+      <c r="C10" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="inlineStr">
@@ -502,7 +518,9 @@
       <c r="B11" s="5" t="n">
         <v>1500</v>
       </c>
-      <c r="C11" s="4" t="n"/>
+      <c r="C11" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="inlineStr">
@@ -513,7 +531,9 @@
       <c r="B12" s="5" t="n">
         <v>600</v>
       </c>
-      <c r="C12" s="4" t="n"/>
+      <c r="C12" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="inlineStr">
@@ -524,7 +544,9 @@
       <c r="B13" s="5" t="n">
         <v>1600</v>
       </c>
-      <c r="C13" s="4" t="n"/>
+      <c r="C13" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -852,6 +874,9 @@
       <c r="B2" s="5" t="n">
         <v>5000</v>
       </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" ht="13.5" customHeight="1" s="10">
       <c r="A3" s="5" t="inlineStr">
@@ -862,6 +887,9 @@
       <c r="B3" s="5" t="n">
         <v>930</v>
       </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" ht="13.5" customHeight="1" s="10">
       <c r="A4" s="5" t="inlineStr">
@@ -872,6 +900,9 @@
       <c r="B4" s="5" t="n">
         <v>1050</v>
       </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" ht="13.5" customHeight="1" s="10">
       <c r="A5" s="5" t="inlineStr">
@@ -882,6 +913,9 @@
       <c r="B5" s="5" t="n">
         <v>6000</v>
       </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" ht="13.5" customHeight="1" s="10">
       <c r="A6" s="5" t="inlineStr">
@@ -892,6 +926,9 @@
       <c r="B6" s="5" t="n">
         <v>1200</v>
       </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" ht="13.5" customHeight="1" s="10">
       <c r="A7" s="5" t="inlineStr">
@@ -903,7 +940,7 @@
         <v>6000</v>
       </c>
       <c r="C7" s="9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" ht="13.5" customHeight="1" s="10">
@@ -915,6 +952,9 @@
       <c r="B8" s="5" t="n">
         <v>1000</v>
       </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" ht="13.5" customHeight="1" s="10">
       <c r="A9" s="5" t="inlineStr">
@@ -925,6 +965,9 @@
       <c r="B9" s="5" t="n">
         <v>1000</v>
       </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" ht="13.5" customHeight="1" s="10">
       <c r="A10" s="5" t="inlineStr">
@@ -935,6 +978,9 @@
       <c r="B10" s="5" t="n">
         <v>1200</v>
       </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" ht="13.5" customHeight="1" s="10">
       <c r="A11" s="5" t="inlineStr">
@@ -958,6 +1004,9 @@
       <c r="B12" s="5" t="n">
         <v>4000</v>
       </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" ht="13.5" customHeight="1" s="10">
       <c r="A13" s="5" t="inlineStr">
@@ -968,6 +1017,9 @@
       <c r="B13" s="5" t="n">
         <v>12000</v>
       </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" ht="13.5" customHeight="1" s="10">
       <c r="A14" s="5" t="inlineStr">
@@ -978,6 +1030,9 @@
       <c r="B14" s="5" t="n">
         <v>12000</v>
       </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" ht="13.5" customHeight="1" s="10">
       <c r="A15" s="5" t="inlineStr">
@@ -987,6 +1042,9 @@
       </c>
       <c r="B15" s="5" t="n">
         <v>8000</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1" s="10"/>
@@ -2110,7 +2168,7 @@
         <v>2000</v>
       </c>
       <c r="C9" s="7" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1" s="10">
@@ -2123,7 +2181,7 @@
         <v>2500</v>
       </c>
       <c r="C10" s="7" t="n">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1" s="10">
